--- a/biology/Zoologie/Cubophis_vudii/Cubophis_vudii.xlsx
+++ b/biology/Zoologie/Cubophis_vudii/Cubophis_vudii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cubophis vudii est une espèce de serpents de la famille des Dipsadidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cubophis vudii est une espèce de serpents de la famille des Dipsadidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique des Bahamas[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique des Bahamas. 
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (30 août 2013)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (30 août 2013) :
 Cubophis vudii aterrimus (Barbour &amp; Shreve, 1935) petit banc des Bahamas
 Cubophis vudii picticeps (Conant, 1937) des îles Bimini
 Cubophis vudii raineyi (Barbour &amp; Shreve, 1935) des Crooked et Acklins
@@ -577,7 +593,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cope, 1863 "1862"  : Synopsis of the species of Holcosus and Ameiva, with diagnoses of new West Indian and South American Colubridae. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 14, p. 60-82 (texte intégral).
 Barbour &amp; Shreve, 1935 : Concerning some Bahamian reptiles, with notes on the fauna. Proceedings of the Boston Society of Natural History, vol. 40, p. 347-365 (texte intégral).
